--- a/biology/Médecine/Processus_coronoïde_de_la_mandibule/Processus_coronoïde_de_la_mandibule.xlsx
+++ b/biology/Médecine/Processus_coronoïde_de_la_mandibule/Processus_coronoïde_de_la_mandibule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_corono%C3%AFde_de_la_mandibule</t>
+          <t>Processus_coronoïde_de_la_mandibule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus coronoïde de la mandibule (ou apophyse coronoïde de la mandibule ou apophyse coronoïde du maxillaire inférieur) est une expansion osseuse située à l'avant du bord supérieur de la branche de la mandibule.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Processus_corono%C3%AFde_de_la_mandibule</t>
+          <t>Processus_coronoïde_de_la_mandibule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus coronoïde de la mandibule est de forme triangulaire à sommet supérieur.
 Son bord antérieur est convexe et se poursuit par le bord antérieur de la branche montante de la mandibule.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Processus_corono%C3%AFde_de_la_mandibule</t>
+          <t>Processus_coronoïde_de_la_mandibule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fractures de la mandibule sont fréquentes. Cependant, les fractures de l'apophyse coronoïde sont très rares[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fractures de la mandibule sont fréquentes. Cependant, les fractures de l'apophyse coronoïde sont très rares.
 Les fractures isolées de l'apophyse coronoïde causées par un traumatisme direct sont rares, car il est anatomiquement protégé par l'arcade zygomatique et les muscles associés.
-La plupart des fractures ici sont causées par des blessures pénétrantes[2]. La prise en charge conservatrice des fractures mineures peut entraîner un trismus qui ne peut être corrigé par une ablation du processus coronoïde[1]. Pour les fractures graves, une chirurgie impliquant une réduction ouverte et une fixation interne peut avoir de bons résultats[1].
+La plupart des fractures ici sont causées par des blessures pénétrantes. La prise en charge conservatrice des fractures mineures peut entraîner un trismus qui ne peut être corrigé par une ablation du processus coronoïde. Pour les fractures graves, une chirurgie impliquant une réduction ouverte et une fixation interne peut avoir de bons résultats.
 </t>
         </is>
       </c>
